--- a/src/main/resources/geoEGiBforms/Adresy.xlsx
+++ b/src/main/resources/geoEGiBforms/Adresy.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\geoEGiBforms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1779CDC-A35F-4A40-84A7-E9807C8E157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="18855" windowHeight="7110"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Właściciele" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Lp</t>
   </si>
@@ -46,155 +52,231 @@
     <t>NR Roboty</t>
   </si>
   <si>
-    <t xml:space="preserve">ALEKSANDRA BUCZYŃSKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- WIARTEL 25/13</t>
+    <t>przedmiotowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAŁŻ. RYSZARD TRZASKOWSKI i 
+    JOLANTA ELŻBIETA TRZASKOWSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ KRASZEWSKIEGO 69A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTWOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PILCHY</t>
+  </si>
+  <si>
+    <t>192/32</t>
+  </si>
+  <si>
+    <t>OL1P/00023412/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G.6642.1.1213.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAŁŻ. JULIAN SŁAWOMIR ŻACZEK i 
+    MARIANNA ANNA ŻACZEK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ ŁĄKOWA 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOROTA KOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ ROTY 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04-420 WARSZAWA</t>
+  </si>
+  <si>
+    <t>192/33</t>
+  </si>
+  <si>
+    <t>OL1P/00023835/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRENA BARBARA KOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WARSZAWA
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAŁŻ. KAMIL DARIUSZ MODZELEWSKI i 
+    AGNIESZKA MODZELEWSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ MICHAŁA WOŁODYJOWSKIEGO 17C/3</t>
   </si>
   <si>
     <t xml:space="preserve"> 12-200 PISZ
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> POGOBIE ŚREDNIE</t>
-  </si>
-  <si>
-    <t>65/23</t>
-  </si>
-  <si>
-    <t>OL1P/00045820/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G.6642.1.1765.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAROL KLISIATYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- POGOBIE ŚREDNIE 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRZYSZTOF NIKIEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- POGOBIE ŚREDNIE 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JANUSZ PIANKOWSKI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- POGOBIE ŚREDNIE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRZEMYSŁAW PIANKOWSKI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- POGOBIE ŚREDNIE 6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAKUB RYDZEWSKI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- MORZYCZYN-WŁÓKI 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 07-140 SADOWNE
+    <t>192/34</t>
+  </si>
+  <si>
+    <t>OL1P/00026408/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAŁŻ. MARCIN ŁADNO i 
+    BEATA ŁADNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ KOŚCIELNA 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05-124 SKRZESZEW
  </t>
   </si>
   <si>
-    <t xml:space="preserve">MAŁŻ. MARCIN DOBROWOLSKI i 
-    MARLENA DOBROWOLSKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- DWORCOWA 11A/10</t>
-  </si>
-  <si>
-    <t>65/28</t>
-  </si>
-  <si>
-    <t>OL1P/00046443/5</t>
-  </si>
-  <si>
-    <t>65/29</t>
-  </si>
-  <si>
-    <t>OL1P/00007248/3</t>
-  </si>
-  <si>
-    <t>65/30</t>
-  </si>
-  <si>
-    <t>OL1P/00048878/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZYMON BUGNACKI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- POGOBIE ŚREDNIE 29</t>
-  </si>
-  <si>
-    <t>67/1</t>
-  </si>
-  <si>
-    <t>OL1P/00004302/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAŁŻ. KRZYSZTOF JAKSINA i 
-    MAŁGORZATA JAKSINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- POGOBIE ŚREDNIE 7</t>
-  </si>
-  <si>
-    <t>69/1</t>
-  </si>
-  <si>
-    <t>OL1P/00007253/1</t>
-  </si>
-  <si>
-    <t>70/1</t>
-  </si>
-  <si>
-    <t>SKARB PAŃSTWA</t>
-  </si>
-  <si>
-    <t>85/5</t>
-  </si>
-  <si>
-    <t>OL1P/00021460/9</t>
-  </si>
-  <si>
-    <t>PAŃSTWOWE GOSPODARSTWO LEŚNE LASY PAŃSTWOWE NADLEŚNICTWO PISZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GDAŃSKA 24</t>
-  </si>
-  <si>
-    <t>98/18</t>
+    <t>192/43</t>
+  </si>
+  <si>
+    <t>OL1P/00043951/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JERZY BUĆKO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ KRUCZA 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18-400 ŁOMŻA
+ </t>
+  </si>
+  <si>
+    <t>192/67</t>
+  </si>
+  <si>
+    <t>OL1P/00045140/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMASZ FLORCZYK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ JANA ONUFREGO ZAGŁOBY 4/23</t>
+  </si>
+  <si>
+    <t>192/68</t>
+  </si>
+  <si>
+    <t>OL1P/00045131/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRYSTYNA SZMIGIELSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ GENERAŁA ST. GROTA ROWECKIEGO 6/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05-480 KARCZEW
+ </t>
+  </si>
+  <si>
+    <t>192/79</t>
+  </si>
+  <si>
+    <t>OL1P/00030246/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELŻBIETA ŁADNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ HENRYKA SIENKIEWICZA 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05-402 OTWOCK
+ </t>
+  </si>
+  <si>
+    <t>192/80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYLWIA KARWOWSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ PILCHY 31</t>
+  </si>
+  <si>
+    <t>207/12</t>
+  </si>
+  <si>
+    <t>OL1P/00043906/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDRA JANUSZEWSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ KOŚCIELNA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19-230 SZCZUCZYN
+ </t>
+  </si>
+  <si>
+    <t>207/52</t>
+  </si>
+  <si>
+    <t>OL1P/00021433/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAŁŻ. MARCIN OSTAŁOWSKI i 
+    MAŁGORZATA ANNA OSTAŁOWSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ WILEŃSKA 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82-300 ELBLĄG
+ </t>
+  </si>
+  <si>
+    <t>207/53</t>
+  </si>
+  <si>
+    <t>OL1P/00043520/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENATA GORCZYŃSKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ DWORCOWA 13/59</t>
+  </si>
+  <si>
+    <t>207/54</t>
+  </si>
+  <si>
+    <t>OL1P/00045033/1</t>
   </si>
   <si>
     <t>[ ] NIE</t>
   </si>
   <si>
     <t>[X] TAK</t>
-  </si>
-  <si>
-    <t>przedmiotowa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,6 +333,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -266,44 +351,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -331,14 +416,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -366,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -377,190 +496,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -595,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -603,491 +698,404 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="K2:N19">
+    <dataValidation type="list" showErrorMessage="1" sqref="K2:N15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"[ ] NIE,[X] TAK"</formula1>
     </dataValidation>
   </dataValidations>
